--- a/ruta_archivos.xlsx
+++ b/ruta_archivos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jairamaro/Servicio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jairamaro/Downloads/Bot-Estadistica-ARTF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9165D95D-BACD-AF49-AA2C-EE75F4A99606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA52F7E-B8B2-744F-920E-656CE285ACB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="460" windowWidth="21240" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="69">
   <si>
     <t>carpeta</t>
   </si>
@@ -243,84 +243,6 @@
   </si>
   <si>
     <t>.xlsx</t>
-  </si>
-  <si>
-    <t>tcarrosx</t>
-  </si>
-  <si>
-    <t>ttkmx</t>
-  </si>
-  <si>
-    <t>ttoneladasx</t>
-  </si>
-  <si>
-    <t>tcceax</t>
-  </si>
-  <si>
-    <t>tccemx</t>
-  </si>
-  <si>
-    <t>ttkmceax</t>
-  </si>
-  <si>
-    <t>ttkmcemx</t>
-  </si>
-  <si>
-    <t>tptmx</t>
-  </si>
-  <si>
-    <t>tvpax</t>
-  </si>
-  <si>
-    <t>tecfax</t>
-  </si>
-  <si>
-    <t>tefax</t>
-  </si>
-  <si>
-    <t>tcdmx</t>
-  </si>
-  <si>
-    <t>tcepax</t>
-  </si>
-  <si>
-    <t>tpeax</t>
-  </si>
-  <si>
-    <t>tsgtx</t>
-  </si>
-  <si>
-    <t>trscgx</t>
-  </si>
-  <si>
-    <t>trsmx</t>
-  </si>
-  <si>
-    <t>trctx</t>
-  </si>
-  <si>
-    <t>trcvx</t>
-  </si>
-  <si>
-    <t>trrmx</t>
-  </si>
-  <si>
-    <t>tvvmx</t>
-  </si>
-  <si>
-    <t>tvctx</t>
-  </si>
-  <si>
-    <t>tvcvx</t>
-  </si>
-  <si>
-    <t>tvtmx</t>
-  </si>
-  <si>
-    <t>thvbx</t>
-  </si>
-  <si>
-    <t>trbvax</t>
   </si>
 </sst>
 </file>
@@ -688,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="106" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="106" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74:B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -797,20 +719,20 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>_xlfn.CONCAT(B6,"_",C6)</f>
-        <v>1_tcarrosx</v>
+        <v>1_tcarros</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>68</v>
       </c>
       <c r="E6" t="str">
         <f>_xlfn.CONCAT("data/",VLOOKUP(B6,carpetas[#All],2,0),"/",C6,D6)</f>
-        <v>data/1_carga/tcarrosx.xlsx</v>
+        <v>data/1_carga/tcarros.xlsx</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -873,20 +795,20 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>_xlfn.CONCAT(B10,"_",C10)</f>
-        <v>1_ttkmx</v>
+        <v>1_ttkm</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>68</v>
       </c>
       <c r="E10" t="str">
         <f>_xlfn.CONCAT("data/",VLOOKUP(B10,carpetas[#All],2,0),"/",C10,D10)</f>
-        <v>data/1_carga/ttkmx.xlsx</v>
+        <v>data/1_carga/ttkm.xlsx</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -911,20 +833,20 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>_xlfn.CONCAT(B12,"_",C12)</f>
-        <v>1_ttoneladasx</v>
+        <v>1_ttoneladas</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
         <v>68</v>
       </c>
       <c r="E12" t="str">
         <f>_xlfn.CONCAT("data/",VLOOKUP(B12,carpetas[#All],2,0),"/",C12,D12)</f>
-        <v>data/1_carga/ttoneladasx.xlsx</v>
+        <v>data/1_carga/ttoneladas.xlsx</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -987,20 +909,20 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f>_xlfn.CONCAT(B16,"_",C16)</f>
-        <v>2_tcceax</v>
+        <v>2_tccea</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
         <v>68</v>
       </c>
       <c r="E16" t="str">
         <f>_xlfn.CONCAT("data/",VLOOKUP(B16,carpetas[#All],2,0),"/",C16,D16)</f>
-        <v>data/2_comercio_exterior/tcceax.xlsx</v>
+        <v>data/2_comercio_exterior/tccea.xlsx</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1025,20 +947,20 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT(B18,"_",C18)</f>
-        <v>2_tccemx</v>
+        <v>2_tccem</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>68</v>
       </c>
       <c r="E18" t="str">
         <f>_xlfn.CONCAT("data/",VLOOKUP(B18,carpetas[#All],2,0),"/",C18,D18)</f>
-        <v>data/2_comercio_exterior/tccemx.xlsx</v>
+        <v>data/2_comercio_exterior/tccem.xlsx</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1063,20 +985,20 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>_xlfn.CONCAT(B20,"_",C20)</f>
-        <v>2_ttkmceax</v>
+        <v>2_ttkmcea</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>68</v>
       </c>
       <c r="E20" t="str">
         <f>_xlfn.CONCAT("data/",VLOOKUP(B20,carpetas[#All],2,0),"/",C20,D20)</f>
-        <v>data/2_comercio_exterior/ttkmceax.xlsx</v>
+        <v>data/2_comercio_exterior/ttkmcea.xlsx</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1101,20 +1023,20 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>_xlfn.CONCAT(B22,"_",C22)</f>
-        <v>2_ttkmcemx</v>
+        <v>2_ttkmcem</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>68</v>
       </c>
       <c r="E22" t="str">
         <f>_xlfn.CONCAT("data/",VLOOKUP(B22,carpetas[#All],2,0),"/",C22,D22)</f>
-        <v>data/2_comercio_exterior/ttkmcemx.xlsx</v>
+        <v>data/2_comercio_exterior/ttkmcem.xlsx</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1158,20 +1080,20 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f>_xlfn.CONCAT(B25,"_",C25)</f>
-        <v>3_tptmx</v>
+        <v>3_tptm</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
         <v>68</v>
       </c>
       <c r="E25" t="str">
         <f>_xlfn.CONCAT("data/",VLOOKUP(B25,carpetas[#All],2,0),"/",C25,D25)</f>
-        <v>data/3_pasajeros/tptmx.xlsx</v>
+        <v>data/3_pasajeros/tptm.xlsx</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1196,20 +1118,20 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>_xlfn.CONCAT(B27,"_",C27)</f>
-        <v>3_tvpax</v>
+        <v>3_tvpa</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
         <v>68</v>
       </c>
       <c r="E27" t="str">
         <f>_xlfn.CONCAT("data/",VLOOKUP(B27,carpetas[#All],2,0),"/",C27,D27)</f>
-        <v>data/3_pasajeros/tvpax.xlsx</v>
+        <v>data/3_pasajeros/tvpa.xlsx</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1272,20 +1194,20 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f>_xlfn.CONCAT(B31,"_",C31)</f>
-        <v>4_tecfax</v>
+        <v>4_tecfa</v>
       </c>
       <c r="B31">
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s">
         <v>68</v>
       </c>
       <c r="E31" t="str">
         <f>_xlfn.CONCAT("data/",VLOOKUP(B31,carpetas[#All],2,0),"/",C31,D31)</f>
-        <v>data/4_equipo_ferroviario/tecfax.xlsx</v>
+        <v>data/4_equipo_ferroviario/tecfa.xlsx</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1310,20 +1232,20 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f>_xlfn.CONCAT(B33,"_",C33)</f>
-        <v>4_tefax</v>
+        <v>4_tefa</v>
       </c>
       <c r="B33">
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
         <v>68</v>
       </c>
       <c r="E33" t="str">
         <f>_xlfn.CONCAT("data/",VLOOKUP(B33,carpetas[#All],2,0),"/",C33,D33)</f>
-        <v>data/4_equipo_ferroviario/tefax.xlsx</v>
+        <v>data/4_equipo_ferroviario/tefa.xlsx</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1367,20 +1289,20 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f>_xlfn.CONCAT(B36,"_",C36)</f>
-        <v>5_tcdmx</v>
+        <v>5_tcdm</v>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="D36" t="s">
         <v>68</v>
       </c>
       <c r="E36" t="str">
         <f>_xlfn.CONCAT("data/",VLOOKUP(B36,carpetas[#All],2,0),"/",C36,D36)</f>
-        <v>data/5_combustible/tcdmx.xlsx</v>
+        <v>data/5_combustible/tcdm.xlsx</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1405,20 +1327,20 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f>_xlfn.CONCAT(B38,"_",C38)</f>
-        <v>5_tcepax</v>
+        <v>5_tcepa</v>
       </c>
       <c r="B38">
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="D38" t="s">
         <v>68</v>
       </c>
       <c r="E38" t="str">
         <f>_xlfn.CONCAT("data/",VLOOKUP(B38,carpetas[#All],2,0),"/",C38,D38)</f>
-        <v>data/5_combustible/tcepax.xlsx</v>
+        <v>data/5_combustible/tcepa.xlsx</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1462,20 +1384,20 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f>_xlfn.CONCAT(B41,"_",C41)</f>
-        <v>6_tpeax</v>
+        <v>6_tpea</v>
       </c>
       <c r="B41">
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="D41" t="s">
         <v>68</v>
       </c>
       <c r="E41" t="str">
         <f>_xlfn.CONCAT("data/",VLOOKUP(B41,carpetas[#All],2,0),"/",C41,D41)</f>
-        <v>data/6_personal/tpeax.xlsx</v>
+        <v>data/6_personal/tpea.xlsx</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1576,20 +1498,20 @@
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f>_xlfn.CONCAT(B47,"_",C47)</f>
-        <v>7_tsgtx</v>
+        <v>7_tsgt</v>
       </c>
       <c r="B47">
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D47" t="s">
         <v>68</v>
       </c>
       <c r="E47" t="str">
         <f>_xlfn.CONCAT("data/",VLOOKUP(B47,carpetas[#All],2,0),"/",C47,D47)</f>
-        <v>data/7_siniestros/tsgtx.xlsx</v>
+        <v>data/7_siniestros/tsgt.xlsx</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1614,20 +1536,20 @@
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f>_xlfn.CONCAT(B49,"_",C49)</f>
-        <v>7_trscgx</v>
+        <v>7_trscg</v>
       </c>
       <c r="B49">
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="D49" t="s">
         <v>68</v>
       </c>
       <c r="E49" t="str">
         <f>_xlfn.CONCAT("data/",VLOOKUP(B49,carpetas[#All],2,0),"/",C49,D49)</f>
-        <v>data/7_siniestros/trscgx.xlsx</v>
+        <v>data/7_siniestros/trscg.xlsx</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1652,20 +1574,20 @@
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f>_xlfn.CONCAT(B51,"_",C51)</f>
-        <v>7_trsmx</v>
+        <v>7_trsm</v>
       </c>
       <c r="B51">
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="D51" t="s">
         <v>68</v>
       </c>
       <c r="E51" t="str">
         <f>_xlfn.CONCAT("data/",VLOOKUP(B51,carpetas[#All],2,0),"/",C51,D51)</f>
-        <v>data/7_siniestros/trsmx.xlsx</v>
+        <v>data/7_siniestros/trsm.xlsx</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1747,20 +1669,20 @@
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f>_xlfn.CONCAT(B56,"_",C56)</f>
-        <v>8_trctx</v>
+        <v>8_trct</v>
       </c>
       <c r="B56">
         <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="D56" t="s">
         <v>68</v>
       </c>
       <c r="E56" t="str">
         <f>_xlfn.CONCAT("data/",VLOOKUP(B56,carpetas[#All],2,0),"/",C56,D56)</f>
-        <v>data/8_robo/trctx.xlsx</v>
+        <v>data/8_robo/trct.xlsx</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -1785,20 +1707,20 @@
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f>_xlfn.CONCAT(B58,"_",C58)</f>
-        <v>8_trcvx</v>
+        <v>8_trcv</v>
       </c>
       <c r="B58">
         <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="D58" t="s">
         <v>68</v>
       </c>
       <c r="E58" t="str">
         <f>_xlfn.CONCAT("data/",VLOOKUP(B58,carpetas[#All],2,0),"/",C58,D58)</f>
-        <v>data/8_robo/trcvx.xlsx</v>
+        <v>data/8_robo/trcv.xlsx</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -1823,20 +1745,20 @@
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f>_xlfn.CONCAT(B60,"_",C60)</f>
-        <v>8_trrmx</v>
+        <v>8_trrm</v>
       </c>
       <c r="B60">
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="D60" t="s">
         <v>68</v>
       </c>
       <c r="E60" t="str">
         <f>_xlfn.CONCAT("data/",VLOOKUP(B60,carpetas[#All],2,0),"/",C60,D60)</f>
-        <v>data/8_robo/trrmx.xlsx</v>
+        <v>data/8_robo/trrm.xlsx</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -1880,20 +1802,20 @@
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f>_xlfn.CONCAT(B63,"_",C63)</f>
-        <v>9_tvvmx</v>
+        <v>9_tvvm</v>
       </c>
       <c r="B63">
         <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D63" t="s">
         <v>68</v>
       </c>
       <c r="E63" t="str">
         <f>_xlfn.CONCAT("data/",VLOOKUP(B63,carpetas[#All],2,0),"/",C63,D63)</f>
-        <v>data/9_vandalismo/tvvmx.xlsx</v>
+        <v>data/9_vandalismo/tvvm.xlsx</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -1918,20 +1840,20 @@
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <f>_xlfn.CONCAT(B65,"_",C65)</f>
-        <v>9_tvctx</v>
+        <v>9_tvct</v>
       </c>
       <c r="B65">
         <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="D65" t="s">
         <v>68</v>
       </c>
       <c r="E65" t="str">
         <f>_xlfn.CONCAT("data/",VLOOKUP(B65,carpetas[#All],2,0),"/",C65,D65)</f>
-        <v>data/9_vandalismo/tvctx.xlsx</v>
+        <v>data/9_vandalismo/tvct.xlsx</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -1956,20 +1878,20 @@
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f>_xlfn.CONCAT(B67,"_",C67)</f>
-        <v>9_tvcvx</v>
+        <v>9_tvcv</v>
       </c>
       <c r="B67">
         <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="D67" t="s">
         <v>68</v>
       </c>
       <c r="E67" t="str">
         <f>_xlfn.CONCAT("data/",VLOOKUP(B67,carpetas[#All],2,0),"/",C67,D67)</f>
-        <v>data/9_vandalismo/tvcvx.xlsx</v>
+        <v>data/9_vandalismo/tvcv.xlsx</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -1994,20 +1916,20 @@
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f>_xlfn.CONCAT(B69,"_",C69)</f>
-        <v>9_tvtmx</v>
+        <v>9_tvtm</v>
       </c>
       <c r="B69">
         <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="D69" t="s">
         <v>68</v>
       </c>
       <c r="E69" t="str">
         <f>_xlfn.CONCAT("data/",VLOOKUP(B69,carpetas[#All],2,0),"/",C69,D69)</f>
-        <v>data/9_vandalismo/tvtmx.xlsx</v>
+        <v>data/9_vandalismo/tvtm.xlsx</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -2108,20 +2030,20 @@
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f>_xlfn.CONCAT(B75,"_",C75)</f>
-        <v>10_thvbx</v>
+        <v>10_thvb</v>
       </c>
       <c r="B75">
         <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="D75" t="s">
         <v>68</v>
       </c>
       <c r="E75" t="str">
         <f>_xlfn.CONCAT("data/",VLOOKUP(B75,carpetas[#All],2,0),"/",C75,D75)</f>
-        <v>data/10_bloqueos/thvbx.xlsx</v>
+        <v>data/10_bloqueos/thvb.xlsx</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -2146,20 +2068,20 @@
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <f>_xlfn.CONCAT(B77,"_",C77)</f>
-        <v>10_trbvax</v>
+        <v>10_trbva</v>
       </c>
       <c r="B77">
         <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="D77" t="s">
         <v>68</v>
       </c>
       <c r="E77" t="str">
         <f>_xlfn.CONCAT("data/",VLOOKUP(B77,carpetas[#All],2,0),"/",C77,D77)</f>
-        <v>data/10_bloqueos/trbvax.xlsx</v>
+        <v>data/10_bloqueos/trbva.xlsx</v>
       </c>
     </row>
   </sheetData>
